--- a/biology/Zoologie/Conus_beatrix/Conus_beatrix.xlsx
+++ b/biology/Zoologie/Conus_beatrix/Conus_beatrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus beatrix est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 14 mm et 31 mm.
 .
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large des Philippines.
 </t>
@@ -577,10 +593,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus beatrix a été décrite pour la première fois en 2007 par les malacologistes Manuel Jimenez Tenorio (d), Guido T. Poppe (d) et Sheila P. Tagaro (d) dans « Visaya »[1],[2].
-Synonymes
-Conus (Turriconus) beatrix Tenorio, Poppe &amp; Tagaro, 2007 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus beatrix a été décrite pour la première fois en 2007 par les malacologistes Manuel Jimenez Tenorio (d), Guido T. Poppe (d) et Sheila P. Tagaro (d) dans « Visaya »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_beatrix</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_beatrix</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Turriconus) beatrix Tenorio, Poppe &amp; Tagaro, 2007 · appellation alternative
 Kurodaconus beatrix (Tenorio, Poppe &amp; Tagaro, 2007) · non accepté
 Turriconus (Turriconus) beatrix (Tenorio, Poppe &amp; Tagaro, 2007) · non accepté
 Turriconus beatrix (Tenorio, Poppe &amp; Tagaro, 2007) · non accepté</t>
